--- a/matlab/logDataProcess/ipb43-14.xlsx
+++ b/matlab/logDataProcess/ipb43-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>reactor</t>
   </si>
@@ -131,6 +131,33 @@
   </si>
   <si>
     <t>singleNarrowPulse-120psi</t>
+  </si>
+  <si>
+    <t>082817</t>
+  </si>
+  <si>
+    <t>090617</t>
+  </si>
+  <si>
+    <t>22nf-singleNarrow-q-100ns-300v250-600c_day-02.csv</t>
+  </si>
+  <si>
+    <t>22nf-singleNarrowPulse-120psi</t>
+  </si>
+  <si>
+    <t>32nf-singleNarrow-300v-250-600c_day-01.csv</t>
+  </si>
+  <si>
+    <t>32nf-singleNarrowPulse-120psi</t>
+  </si>
+  <si>
+    <t>32nf-singleNarrow-d2_day-01.csv</t>
+  </si>
+  <si>
+    <t>091217</t>
+  </si>
+  <si>
+    <t>32nf-singleNarrowPulse-d2</t>
   </si>
 </sst>
 </file>
@@ -978,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1369,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>36</v>
@@ -1409,6 +1436,156 @@
       </c>
       <c r="Q8" s="2" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2">
+        <v>47</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb43-14.xlsx
+++ b/matlab/logDataProcess/ipb43-14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="870" windowWidth="30945" windowHeight="14340"/>
+    <workbookView xWindow="1575" yWindow="150" windowWidth="30945" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>reactor</t>
   </si>
@@ -158,6 +158,33 @@
   </si>
   <si>
     <t>32nf-singleNarrowPulse-d2</t>
+  </si>
+  <si>
+    <t>2017-09-15-17-Core14bx_V4.3reactor_Qpcb_V3</t>
+  </si>
+  <si>
+    <t>IPB4-3_275-325C_H2_Fixed_narrowQ_day-01.csv</t>
+  </si>
+  <si>
+    <t>091617</t>
+  </si>
+  <si>
+    <t>nb-3-singleNarrow-300v</t>
+  </si>
+  <si>
+    <t>IPB4-ipbx-h2-fixedNarrow-Q_32nF_200V-500-600c_day-01.csv</t>
+  </si>
+  <si>
+    <t>091917</t>
+  </si>
+  <si>
+    <t>092017</t>
+  </si>
+  <si>
+    <t>IPB4-ipbx-h2-fixedNarrow-Q_32nF_200V-275-325c_day-01.csv</t>
+  </si>
+  <si>
+    <t>nb-3-singleNarrow-200v</t>
   </si>
 </sst>
 </file>
@@ -1005,16 +1032,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -1588,6 +1615,156 @@
         <v>47</v>
       </c>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
